--- a/Diccionario_Base_PERSONA.xlsx
+++ b/Diccionario_Base_PERSONA.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marlo\Desktop\UFM\Septimo Semestre\DS\Proyecto final\db_csv_\Diccionario de datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP ENVY\Desktop\Data Science\Curso\proyectofinal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51FCEF95-0342-4C18-9593-738B722BA8C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50462FD-33B9-41BA-9DB5-084974C45D6B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PERSONA" sheetId="1" r:id="rId1"/>
+    <sheet name="depto" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="168">
   <si>
     <t>DEPARTAMENTO</t>
   </si>
@@ -526,6 +527,9 @@
   </si>
   <si>
     <t>21 años de estudio</t>
+  </si>
+  <si>
+    <t>Depto</t>
   </si>
 </sst>
 </file>
@@ -535,7 +539,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###0"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -708,17 +712,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -732,17 +736,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -752,6 +750,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1037,18 +1041,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="3" max="3" width="53.88671875" customWidth="1"/>
     <col min="4" max="4" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>13</v>
       </c>
@@ -1056,7 +1060,7 @@
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1070,166 +1074,166 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="21" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="14">
         <v>1</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="14">
         <v>14</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="21" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="14">
         <v>22</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="21" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="14">
         <v>23</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="21" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="14">
         <v>25</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="21" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="14">
         <v>41</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="21" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="14">
         <v>56</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="21" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="14">
         <v>57</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="21" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="14">
         <v>71</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="21" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13" s="14">
         <v>78</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="10"/>
       <c r="C14" s="9"/>
       <c r="D14" s="11"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="10"/>
       <c r="C15" s="9"/>
       <c r="D15" s="11"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
         <v>117</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
@@ -1240,8 +1244,8 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="13" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -1251,8 +1255,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="14"/>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="22"/>
       <c r="B20" s="6" t="s">
         <v>23</v>
       </c>
@@ -1260,8 +1264,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="14"/>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="22"/>
       <c r="B21" s="6" t="s">
         <v>25</v>
       </c>
@@ -1269,8 +1273,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="14"/>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="22"/>
       <c r="B22" s="6" t="s">
         <v>27</v>
       </c>
@@ -1278,8 +1282,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="14"/>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="22"/>
       <c r="B23" s="6" t="s">
         <v>29</v>
       </c>
@@ -1287,8 +1291,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="14"/>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="22"/>
       <c r="B24" s="6" t="s">
         <v>31</v>
       </c>
@@ -1296,8 +1300,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="14"/>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="22"/>
       <c r="B25" s="6" t="s">
         <v>33</v>
       </c>
@@ -1305,8 +1309,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="14"/>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="22"/>
       <c r="B26" s="6" t="s">
         <v>35</v>
       </c>
@@ -1314,8 +1318,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="14"/>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="22"/>
       <c r="B27" s="6" t="s">
         <v>37</v>
       </c>
@@ -1323,8 +1327,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="14"/>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="22"/>
       <c r="B28" s="6" t="s">
         <v>39</v>
       </c>
@@ -1332,8 +1336,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="14"/>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="22"/>
       <c r="B29" s="6" t="s">
         <v>41</v>
       </c>
@@ -1341,8 +1345,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="14"/>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="22"/>
       <c r="B30" s="6" t="s">
         <v>43</v>
       </c>
@@ -1350,8 +1354,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="14"/>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="22"/>
       <c r="B31" s="6" t="s">
         <v>45</v>
       </c>
@@ -1359,8 +1363,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="14"/>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="22"/>
       <c r="B32" s="6" t="s">
         <v>47</v>
       </c>
@@ -1368,8 +1372,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="14"/>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="22"/>
       <c r="B33" s="6" t="s">
         <v>49</v>
       </c>
@@ -1377,8 +1381,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="14"/>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="22"/>
       <c r="B34" s="6" t="s">
         <v>51</v>
       </c>
@@ -1386,8 +1390,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="14"/>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="22"/>
       <c r="B35" s="6" t="s">
         <v>53</v>
       </c>
@@ -1395,8 +1399,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="14"/>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="22"/>
       <c r="B36" s="6" t="s">
         <v>55</v>
       </c>
@@ -1404,8 +1408,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="14"/>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="22"/>
       <c r="B37" s="6" t="s">
         <v>57</v>
       </c>
@@ -1413,8 +1417,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="14"/>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="22"/>
       <c r="B38" s="6" t="s">
         <v>59</v>
       </c>
@@ -1422,8 +1426,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="14"/>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="22"/>
       <c r="B39" s="6" t="s">
         <v>61</v>
       </c>
@@ -1431,8 +1435,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="14"/>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="22"/>
       <c r="B40" s="6" t="s">
         <v>63</v>
       </c>
@@ -1440,8 +1444,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="25" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="23" t="s">
         <v>1</v>
       </c>
       <c r="B41" s="6" t="s">
@@ -1451,8 +1455,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="26"/>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="24"/>
       <c r="B42" s="6" t="s">
         <v>23</v>
       </c>
@@ -1460,8 +1464,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="26"/>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="24"/>
       <c r="B43" s="6" t="s">
         <v>25</v>
       </c>
@@ -1469,8 +1473,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="26"/>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="24"/>
       <c r="B44" s="6" t="s">
         <v>27</v>
       </c>
@@ -1478,8 +1482,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="26"/>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="24"/>
       <c r="B45" s="6" t="s">
         <v>29</v>
       </c>
@@ -1487,8 +1491,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="26"/>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="24"/>
       <c r="B46" s="6" t="s">
         <v>31</v>
       </c>
@@ -1496,8 +1500,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="26"/>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="24"/>
       <c r="B47" s="6" t="s">
         <v>33</v>
       </c>
@@ -1505,8 +1509,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="26"/>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="24"/>
       <c r="B48" s="6" t="s">
         <v>35</v>
       </c>
@@ -1514,8 +1518,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="26"/>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="24"/>
       <c r="B49" s="6" t="s">
         <v>37</v>
       </c>
@@ -1523,8 +1527,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="26"/>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="24"/>
       <c r="B50" s="6" t="s">
         <v>39</v>
       </c>
@@ -1532,8 +1536,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="26"/>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="24"/>
       <c r="B51" s="6" t="s">
         <v>41</v>
       </c>
@@ -1541,8 +1545,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="26"/>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="24"/>
       <c r="B52" s="6" t="s">
         <v>43</v>
       </c>
@@ -1550,8 +1554,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="26"/>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="24"/>
       <c r="B53" s="6" t="s">
         <v>45</v>
       </c>
@@ -1559,8 +1563,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="26"/>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="24"/>
       <c r="B54" s="6" t="s">
         <v>47</v>
       </c>
@@ -1568,8 +1572,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="26"/>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="24"/>
       <c r="B55" s="6" t="s">
         <v>49</v>
       </c>
@@ -1577,8 +1581,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="26"/>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="24"/>
       <c r="B56" s="6" t="s">
         <v>51</v>
       </c>
@@ -1586,8 +1590,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="26"/>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="24"/>
       <c r="B57" s="6" t="s">
         <v>53</v>
       </c>
@@ -1595,8 +1599,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="26"/>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="24"/>
       <c r="B58" s="6" t="s">
         <v>55</v>
       </c>
@@ -1604,8 +1608,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="26"/>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="24"/>
       <c r="B59" s="6" t="s">
         <v>57</v>
       </c>
@@ -1613,8 +1617,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="26"/>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="24"/>
       <c r="B60" s="6" t="s">
         <v>59</v>
       </c>
@@ -1622,8 +1626,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="26"/>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="24"/>
       <c r="B61" s="6" t="s">
         <v>61</v>
       </c>
@@ -1631,8 +1635,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="27"/>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="25"/>
       <c r="B62" s="6" t="s">
         <v>63</v>
       </c>
@@ -1640,8 +1644,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="13" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="21" t="s">
         <v>3</v>
       </c>
       <c r="B63" s="6" t="s">
@@ -1651,8 +1655,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="14"/>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="22"/>
       <c r="B64" s="6" t="s">
         <v>23</v>
       </c>
@@ -1660,8 +1664,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="14"/>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="22"/>
       <c r="B65" s="6" t="s">
         <v>25</v>
       </c>
@@ -1669,8 +1673,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="14"/>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="22"/>
       <c r="B66" s="6" t="s">
         <v>27</v>
       </c>
@@ -1678,8 +1682,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="14"/>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="22"/>
       <c r="B67" s="6" t="s">
         <v>29</v>
       </c>
@@ -1687,8 +1691,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="14"/>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="22"/>
       <c r="B68" s="6" t="s">
         <v>31</v>
       </c>
@@ -1696,8 +1700,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="13" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="21" t="s">
         <v>5</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -1707,8 +1711,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="14"/>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="22"/>
       <c r="B70" s="6" t="s">
         <v>23</v>
       </c>
@@ -1716,8 +1720,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="14"/>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="22"/>
       <c r="B71" s="6" t="s">
         <v>25</v>
       </c>
@@ -1725,8 +1729,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="14"/>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="22"/>
       <c r="B72" s="6" t="s">
         <v>27</v>
       </c>
@@ -1734,8 +1738,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="14"/>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="22"/>
       <c r="B73" s="6" t="s">
         <v>29</v>
       </c>
@@ -1743,8 +1747,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="14"/>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="22"/>
       <c r="B74" s="6" t="s">
         <v>31</v>
       </c>
@@ -1752,8 +1756,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="14"/>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="22"/>
       <c r="B75" s="6" t="s">
         <v>33</v>
       </c>
@@ -1761,8 +1765,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="14"/>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="22"/>
       <c r="B76" s="6" t="s">
         <v>35</v>
       </c>
@@ -1770,8 +1774,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="14"/>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="22"/>
       <c r="B77" s="6" t="s">
         <v>37</v>
       </c>
@@ -1779,8 +1783,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="14"/>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="22"/>
       <c r="B78" s="6" t="s">
         <v>39</v>
       </c>
@@ -1788,8 +1792,8 @@
         <v>86</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="14"/>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="22"/>
       <c r="B79" s="6" t="s">
         <v>41</v>
       </c>
@@ -1797,8 +1801,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="14"/>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="22"/>
       <c r="B80" s="6" t="s">
         <v>43</v>
       </c>
@@ -1806,8 +1810,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="14"/>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="22"/>
       <c r="B81" s="6" t="s">
         <v>45</v>
       </c>
@@ -1815,8 +1819,8 @@
         <v>89</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="14"/>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="22"/>
       <c r="B82" s="6" t="s">
         <v>47</v>
       </c>
@@ -1824,8 +1828,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="14"/>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="22"/>
       <c r="B83" s="6" t="s">
         <v>49</v>
       </c>
@@ -1833,8 +1837,8 @@
         <v>91</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="14"/>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="22"/>
       <c r="B84" s="6" t="s">
         <v>51</v>
       </c>
@@ -1842,8 +1846,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="14"/>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="22"/>
       <c r="B85" s="6" t="s">
         <v>53</v>
       </c>
@@ -1851,8 +1855,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="14"/>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="22"/>
       <c r="B86" s="6" t="s">
         <v>55</v>
       </c>
@@ -1860,8 +1864,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="14"/>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="22"/>
       <c r="B87" s="6" t="s">
         <v>57</v>
       </c>
@@ -1869,8 +1873,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="14"/>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="22"/>
       <c r="B88" s="6" t="s">
         <v>59</v>
       </c>
@@ -1878,8 +1882,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="14"/>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="22"/>
       <c r="B89" s="6" t="s">
         <v>61</v>
       </c>
@@ -1887,8 +1891,8 @@
         <v>97</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="14"/>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="22"/>
       <c r="B90" s="6" t="s">
         <v>63</v>
       </c>
@@ -1896,8 +1900,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="13" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B91" s="6" t="s">
@@ -1907,8 +1911,8 @@
         <v>99</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="14"/>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="22"/>
       <c r="B92" s="6" t="s">
         <v>23</v>
       </c>
@@ -1916,8 +1920,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="14"/>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="22"/>
       <c r="B93" s="6" t="s">
         <v>25</v>
       </c>
@@ -1925,8 +1929,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="14"/>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="22"/>
       <c r="B94" s="6" t="s">
         <v>27</v>
       </c>
@@ -1934,8 +1938,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="14"/>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="22"/>
       <c r="B95" s="6" t="s">
         <v>29</v>
       </c>
@@ -1943,8 +1947,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="14"/>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="22"/>
       <c r="B96" s="6" t="s">
         <v>31</v>
       </c>
@@ -1952,8 +1956,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="14"/>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="22"/>
       <c r="B97" s="6" t="s">
         <v>33</v>
       </c>
@@ -1961,8 +1965,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="14"/>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="22"/>
       <c r="B98" s="6" t="s">
         <v>35</v>
       </c>
@@ -1970,8 +1974,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="14"/>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="22"/>
       <c r="B99" s="6" t="s">
         <v>37</v>
       </c>
@@ -1979,8 +1983,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="14"/>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="22"/>
       <c r="B100" s="6" t="s">
         <v>39</v>
       </c>
@@ -1988,8 +1992,8 @@
         <v>86</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="14"/>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="22"/>
       <c r="B101" s="6" t="s">
         <v>41</v>
       </c>
@@ -1997,8 +2001,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="14"/>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="22"/>
       <c r="B102" s="6" t="s">
         <v>43</v>
       </c>
@@ -2006,8 +2010,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="14"/>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="22"/>
       <c r="B103" s="6" t="s">
         <v>45</v>
       </c>
@@ -2015,8 +2019,8 @@
         <v>89</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="14"/>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="22"/>
       <c r="B104" s="6" t="s">
         <v>47</v>
       </c>
@@ -2024,8 +2028,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="14"/>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="22"/>
       <c r="B105" s="6" t="s">
         <v>49</v>
       </c>
@@ -2033,8 +2037,8 @@
         <v>91</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="14"/>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="22"/>
       <c r="B106" s="6" t="s">
         <v>51</v>
       </c>
@@ -2042,8 +2046,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="14"/>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="22"/>
       <c r="B107" s="6" t="s">
         <v>53</v>
       </c>
@@ -2051,8 +2055,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="14"/>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="22"/>
       <c r="B108" s="6" t="s">
         <v>55</v>
       </c>
@@ -2060,8 +2064,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="14"/>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="22"/>
       <c r="B109" s="6" t="s">
         <v>57</v>
       </c>
@@ -2069,8 +2073,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="14"/>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="22"/>
       <c r="B110" s="6" t="s">
         <v>59</v>
       </c>
@@ -2078,8 +2082,8 @@
         <v>104</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="14"/>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="22"/>
       <c r="B111" s="6" t="s">
         <v>61</v>
       </c>
@@ -2087,8 +2091,8 @@
         <v>97</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="14"/>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="22"/>
       <c r="B112" s="6" t="s">
         <v>63</v>
       </c>
@@ -2096,8 +2100,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="14"/>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="22"/>
       <c r="B113" s="6" t="s">
         <v>106</v>
       </c>
@@ -2105,8 +2109,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="14"/>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="22"/>
       <c r="B114" s="6" t="s">
         <v>107</v>
       </c>
@@ -2114,8 +2118,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="14"/>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="22"/>
       <c r="B115" s="6" t="s">
         <v>108</v>
       </c>
@@ -2123,8 +2127,8 @@
         <v>109</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="14"/>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="22"/>
       <c r="B116" s="6" t="s">
         <v>110</v>
       </c>
@@ -2132,8 +2136,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="14"/>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="22"/>
       <c r="B117" s="6" t="s">
         <v>112</v>
       </c>
@@ -2141,8 +2145,8 @@
         <v>113</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="14"/>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="22"/>
       <c r="B118" s="6" t="s">
         <v>114</v>
       </c>
@@ -2150,8 +2154,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="14"/>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="22"/>
       <c r="B119" s="6" t="s">
         <v>70</v>
       </c>
@@ -2159,8 +2163,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="13" t="s">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="21" t="s">
         <v>9</v>
       </c>
       <c r="B120" s="6" t="s">
@@ -2170,8 +2174,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="14"/>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="22"/>
       <c r="B121" s="6" t="s">
         <v>23</v>
       </c>
@@ -2179,8 +2183,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="15" t="s">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="26" t="s">
         <v>121</v>
       </c>
       <c r="B122" s="8" t="s">
@@ -2190,8 +2194,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="16"/>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="27"/>
       <c r="B123" s="8" t="s">
         <v>21</v>
       </c>
@@ -2199,8 +2203,8 @@
         <v>134</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="16"/>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="27"/>
       <c r="B124" s="8" t="s">
         <v>23</v>
       </c>
@@ -2208,8 +2212,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="16"/>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="27"/>
       <c r="B125" s="8" t="s">
         <v>25</v>
       </c>
@@ -2217,8 +2221,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="16"/>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="27"/>
       <c r="B126" s="8" t="s">
         <v>27</v>
       </c>
@@ -2226,8 +2230,8 @@
         <v>137</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="16"/>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="27"/>
       <c r="B127" s="8" t="s">
         <v>29</v>
       </c>
@@ -2235,8 +2239,8 @@
         <v>138</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="22.8">
-      <c r="A128" s="16"/>
+    <row r="128" spans="1:3" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A128" s="27"/>
       <c r="B128" s="8" t="s">
         <v>31</v>
       </c>
@@ -2244,8 +2248,8 @@
         <v>139</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="16"/>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="27"/>
       <c r="B129" s="8" t="s">
         <v>33</v>
       </c>
@@ -2253,8 +2257,8 @@
         <v>140</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="16"/>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="27"/>
       <c r="B130" s="8" t="s">
         <v>35</v>
       </c>
@@ -2262,8 +2266,8 @@
         <v>141</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="16"/>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="27"/>
       <c r="B131" s="8" t="s">
         <v>37</v>
       </c>
@@ -2271,8 +2275,8 @@
         <v>142</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="16"/>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" s="27"/>
       <c r="B132" s="8" t="s">
         <v>69</v>
       </c>
@@ -2280,8 +2284,8 @@
         <v>132</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="15" t="s">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" s="26" t="s">
         <v>122</v>
       </c>
       <c r="B133" s="8" t="s">
@@ -2291,8 +2295,8 @@
         <v>126</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="16"/>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" s="27"/>
       <c r="B134" s="8" t="s">
         <v>23</v>
       </c>
@@ -2300,8 +2304,8 @@
         <v>127</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="16"/>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" s="27"/>
       <c r="B135" s="8" t="s">
         <v>25</v>
       </c>
@@ -2309,8 +2313,8 @@
         <v>128</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="16"/>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" s="27"/>
       <c r="B136" s="8" t="s">
         <v>27</v>
       </c>
@@ -2318,8 +2322,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
-      <c r="A137" s="16"/>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" s="27"/>
       <c r="B137" s="8" t="s">
         <v>29</v>
       </c>
@@ -2327,8 +2331,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
-      <c r="A138" s="16"/>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" s="27"/>
       <c r="B138" s="8" t="s">
         <v>31</v>
       </c>
@@ -2336,8 +2340,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
-      <c r="A139" s="16"/>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" s="27"/>
       <c r="B139" s="8" t="s">
         <v>33</v>
       </c>
@@ -2345,8 +2349,8 @@
         <v>131</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
-      <c r="A140" s="16"/>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" s="27"/>
       <c r="B140" s="8" t="s">
         <v>37</v>
       </c>
@@ -2354,7 +2358,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>11</v>
       </c>
@@ -2365,7 +2369,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="17" t="s">
         <v>143</v>
       </c>
@@ -2376,7 +2380,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="18"/>
       <c r="B143" s="6" t="s">
         <v>21</v>
@@ -2385,7 +2389,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="18"/>
       <c r="B144" s="6" t="s">
         <v>23</v>
@@ -2394,7 +2398,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="18"/>
       <c r="B145" s="6" t="s">
         <v>25</v>
@@ -2403,7 +2407,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="18"/>
       <c r="B146" s="6" t="s">
         <v>27</v>
@@ -2412,7 +2416,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="18"/>
       <c r="B147" s="6" t="s">
         <v>29</v>
@@ -2421,7 +2425,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="18"/>
       <c r="B148" s="6" t="s">
         <v>31</v>
@@ -2430,7 +2434,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="18"/>
       <c r="B149" s="6" t="s">
         <v>33</v>
@@ -2439,7 +2443,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="18"/>
       <c r="B150" s="6" t="s">
         <v>35</v>
@@ -2448,7 +2452,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="18"/>
       <c r="B151" s="6" t="s">
         <v>37</v>
@@ -2457,7 +2461,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="18"/>
       <c r="B152" s="6" t="s">
         <v>39</v>
@@ -2466,7 +2470,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="18"/>
       <c r="B153" s="6" t="s">
         <v>41</v>
@@ -2475,7 +2479,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="18"/>
       <c r="B154" s="6" t="s">
         <v>43</v>
@@ -2484,7 +2488,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="18"/>
       <c r="B155" s="6" t="s">
         <v>45</v>
@@ -2493,7 +2497,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="18"/>
       <c r="B156" s="6" t="s">
         <v>47</v>
@@ -2502,7 +2506,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="18"/>
       <c r="B157" s="6" t="s">
         <v>49</v>
@@ -2511,7 +2515,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="18"/>
       <c r="B158" s="6" t="s">
         <v>51</v>
@@ -2520,7 +2524,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="18"/>
       <c r="B159" s="6" t="s">
         <v>53</v>
@@ -2529,7 +2533,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="18"/>
       <c r="B160" s="6" t="s">
         <v>55</v>
@@ -2538,7 +2542,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="18"/>
       <c r="B161" s="6" t="s">
         <v>57</v>
@@ -2547,7 +2551,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="18"/>
       <c r="B162" s="6" t="s">
         <v>59</v>
@@ -2556,7 +2560,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="18"/>
       <c r="B163" s="6" t="s">
         <v>61</v>
@@ -2582,4 +2586,206 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11FFFA4E-9161-4EF3-B0EA-2105DEDF68B1}">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="14.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>